--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_pm1_249.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_pm1_249.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N812"/>
+  <dimension ref="A1:N813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.551253080368042</v>
+        <v>1.40168309211731</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01135897636413574</v>
+        <v>0.02364420890808105</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08965301513671875</v>
+        <v>0.2956178188323975</v>
       </c>
     </row>
     <row r="8">
@@ -6143,7 +6143,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>0.02053918097713546</v>
+        <v>0.0205387209046344</v>
       </c>
     </row>
     <row r="807">
@@ -6153,116 +6153,126 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>31126.80578247477</v>
+        <v>31160.40578247477</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B808" t="n">
-        <v>23</v>
+        <v>0.9986125916381895</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B809" t="n">
-        <v>759</v>
+        <v>23</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B810" t="n">
-        <v>4</v>
+        <v>771</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B811" t="n">
-        <v>0.67942214012146</v>
+        <v>4</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>1.799049139022827</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B812" t="inlineStr">
+      <c r="B813" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C812" t="inlineStr">
+      <c r="C813" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D812" t="inlineStr">
+      <c r="D813" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E812" t="inlineStr">
+      <c r="E813" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F812" t="inlineStr">
+      <c r="F813" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G812" t="inlineStr">
+      <c r="G813" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H812" t="inlineStr">
+      <c r="H813" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I812" t="inlineStr">
+      <c r="I813" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J812" t="inlineStr">
+      <c r="J813" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K812" t="inlineStr">
+      <c r="K813" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L812" t="inlineStr">
+      <c r="L813" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M812" t="inlineStr">
+      <c r="M813" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N812" t="inlineStr">
+      <c r="N813" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_pm1_249.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_pm1_249.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.40168309211731</v>
+        <v>0.0009281635284423828</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02364420890808105</v>
+        <v>0.0004518032073974609</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2956178188323975</v>
+        <v>0.13968825340271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (0, 1), (2, 0), (3, 0), (3, 1), (2, 2), (1, 0), (2, 3), (2, 1), (1, 1), (1, 2), (0, 3), (1, 3)]</t>
+          <t>[[0, 2], [0, 0], [0, 1], [2, 0], [3, 0], [3, 1], [2, 2], [1, 0], [2, 3], [2, 1], [1, 1], [1, 2], [0, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 2), (0, 2), (3, 0), (0, 1), (3, 2), (1, 3), (3, 1), (2, 0), (1, 0), (0, 0), (2, 1), (2, 2), (1, 1)]</t>
+          <t>[[0, 3], [1, 2], [0, 2], [3, 0], [0, 1], [3, 2], [1, 3], [3, 1], [2, 0], [1, 0], [0, 0], [2, 1], [2, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3), (2, 2), (3, 0), (2, 3), (3, 2), (1, 3), (0, 0), (2, 1), (0, 1), (1, 2), (1, 0), (2, 0), (1, 1)]</t>
+          <t>[[0, 2], [0, 3], [2, 2], [3, 0], [2, 3], [3, 2], [1, 3], [0, 0], [2, 1], [0, 1], [1, 2], [1, 0], [2, 0], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 2), (1, 1), (3, 0), (2, 3), (3, 2), (0, 1), (1, 0), (2, 1), (1, 3), (0, 2), (0, 0), (2, 0), (2, 2)]</t>
+          <t>[[0, 3], [1, 2], [1, 1], [3, 0], [2, 3], [3, 2], [0, 1], [1, 0], [2, 1], [1, 3], [0, 2], [0, 0], [2, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>1.799049139022827</v>
+        <v>0.1789629459381104</v>
       </c>
     </row>
     <row r="813">
